--- a/excel/assignments/Assignment12_Workbook.xlsx
+++ b/excel/assignments/Assignment12_Workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19185" windowHeight="9225"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
-  <si>
-    <t>Sales Tax</t>
-  </si>
-  <si>
-    <t>Menu Item</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Empanadas: Beef Picadillo</t>
   </si>
@@ -61,30 +46,47 @@
     <t>Empanadas: Apple Cinnamon</t>
   </si>
   <si>
-    <t>Beverages: Horchata</t>
-  </si>
-  <si>
-    <t>Beverages: Lemonade</t>
-  </si>
-  <si>
-    <t>Beverages: Tamarindo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     Invoice                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         Invoice</t>
+    <t xml:space="preserve">         Rechnung</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Preis</t>
+  </si>
+  <si>
+    <t>Menge</t>
+  </si>
+  <si>
+    <t>Steuer</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Getränke: Horchata</t>
+  </si>
+  <si>
+    <t>Getränke: Lemonade</t>
+  </si>
+  <si>
+    <t>Getränke: Tamarindo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Rechnung                </t>
+  </si>
+  <si>
+    <t>Steuersatz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -194,16 +196,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -211,7 +206,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -224,6 +218,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Prozent" xfId="2" builtinId="5"/>
@@ -606,34 +606,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="A2:E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="A2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2">
         <v>0.08</v>
@@ -641,169 +641,169 @@
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="15">
         <v>2.99</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="15">
         <f>(B4*C4)*E2</f>
         <v>3.5880000000000001</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="16">
         <f>B4*C4+D4</f>
         <v>48.438000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="15">
         <v>3.99</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C6" s="5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16">
+        <v>2.29</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16">
+        <v>2.29</v>
+      </c>
+      <c r="C8" s="7">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2.89</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="C6" s="6">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2.29</v>
-      </c>
-      <c r="C7" s="10">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2.29</v>
-      </c>
-      <c r="C8" s="10">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="B11" s="16">
+        <v>3.19</v>
+      </c>
+      <c r="C11" s="7">
+        <v>40</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="C12" s="7">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="C13" s="7">
+        <v>35</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1.89</v>
+      </c>
+      <c r="C14" s="7">
         <v>10</v>
       </c>
-      <c r="B9" s="8">
-        <v>2.89</v>
-      </c>
-      <c r="C9" s="10">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="C10" s="10">
-        <v>20</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8">
-        <v>3.19</v>
-      </c>
-      <c r="C11" s="10">
-        <v>40</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="8">
-        <v>1.89</v>
-      </c>
-      <c r="C12" s="10">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1.89</v>
-      </c>
-      <c r="C13" s="10">
-        <v>35</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1.89</v>
-      </c>
-      <c r="C14" s="10">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,250 +830,250 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="B3" s="13">
         <v>2.99</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>15</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="14">
         <f t="shared" ref="D3:D13" si="0">B3*C3*0.075</f>
         <v>3.36375</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <f t="shared" ref="E3:E13" si="1">B3*C3+D3</f>
         <v>48.213750000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="13">
         <v>3.99</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>10</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="14">
         <f t="shared" si="0"/>
         <v>2.9925000000000002</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <f t="shared" si="1"/>
         <v>42.892500000000005</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>20</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>3.7350000000000003</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
         <v>53.535000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13">
         <v>2.29</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>20</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="14">
         <f t="shared" si="0"/>
         <v>3.4349999999999996</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <f t="shared" si="1"/>
         <v>49.234999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
         <v>2.29</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>30</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="14">
         <f t="shared" si="0"/>
         <v>5.1524999999999999</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>73.852500000000006</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>2.89</v>
+      </c>
+      <c r="C8" s="8">
         <v>10</v>
       </c>
-      <c r="B8" s="11">
-        <v>2.89</v>
-      </c>
-      <c r="C8" s="11">
-        <v>10</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="D8" s="14">
         <f t="shared" si="0"/>
         <v>2.1675</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>31.067500000000003</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>20</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="14">
         <f t="shared" si="0"/>
         <v>3.7350000000000003</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="14">
         <f t="shared" si="1"/>
         <v>53.535000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13">
         <v>3.19</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>40</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="14">
         <f t="shared" si="0"/>
         <v>9.5699999999999985</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <f t="shared" si="1"/>
         <v>137.16999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13">
         <v>1.89</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>25</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="14">
         <f t="shared" si="0"/>
         <v>3.5437499999999997</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="14">
         <f t="shared" si="1"/>
         <v>50.793750000000003</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="13">
         <v>1.89</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>35</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="14">
         <f t="shared" si="0"/>
         <v>4.9612499999999988</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="14">
         <f t="shared" si="1"/>
         <v>71.111249999999984</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13">
         <v>1.89</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
         <v>1.4174999999999998</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <f t="shared" si="1"/>
         <v>20.317499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
